--- a/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Intermediate Course Files/Instructor Files/Section 5/05-03-the-sort-and-sortby-functions.xlsx
+++ b/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Intermediate Course Files/Instructor Files/Section 5/05-03-the-sort-and-sortby-functions.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f21e54c367d3358c/Documents/01 Work Files/05 SSIT/Online Courses/Excel 2021 Intermediate/Course Files/Section 5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Excel_Learning\normal\Excel 2021 Beginner to Advanced Course Files\Excel 2021 Intermediate Course Files\Instructor Files\Section 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{E7CB0F99-AD7A-490D-875C-68BB9ADB7C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{434A6957-7254-479E-9098-02ACCBE7EC5D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC4950D-D397-491A-9B71-9E868C9201B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5BA352E3-CE18-4C59-9F5C-5F1372256CDB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{5BA352E3-CE18-4C59-9F5C-5F1372256CDB}"/>
   </bookViews>
   <sheets>
     <sheet name="SORT Function" sheetId="1" r:id="rId1"/>
     <sheet name="SORTBY Function" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="Student_Mark">'SORTBY Function'!$B$5:$B$29,'SORTBY Function'!$D$5:$D$29</definedName>
+  </definedNames>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,8 +37,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="42">
   <si>
     <t>Sorting Using the SORT Function</t>
   </si>
@@ -152,6 +177,15 @@
   </si>
   <si>
     <t>Sorting Using the SORTBY Function</t>
+  </si>
+  <si>
+    <t>East Wing</t>
+  </si>
+  <si>
+    <t>Matthew</t>
+  </si>
+  <si>
+    <t>sort by Mark -&gt; Block -&gt; Student</t>
   </si>
 </sst>
 </file>
@@ -200,7 +234,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -219,20 +253,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF006699"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -248,6 +331,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{566BA733-9402-41E8-9202-0DD4559F4016}" name="Table1" displayName="Table1" ref="A4:D30" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+  <autoFilter ref="A4:D30" xr:uid="{566BA733-9402-41E8-9202-0DD4559F4016}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{1CB22381-E21A-40FB-AB7C-F1484E73BBD3}" name="Block"/>
+    <tableColumn id="2" xr3:uid="{8447351A-B070-4133-ABE7-5AD98F5D0C98}" name="Student"/>
+    <tableColumn id="3" xr3:uid="{4A257E8A-DB00-4618-B476-8FAAD32A659D}" name="Exam"/>
+    <tableColumn id="4" xr3:uid="{4CDB70A2-0764-423D-811A-5452B9872513}" name="Mark"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -547,30 +643,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00A5BB88-4320-47B4-8468-098127FC4EE0}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:AD30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.3984375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -585,8 +684,47 @@
       <c r="I4" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -599,8 +737,64 @@
       <c r="D5">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F5" t="str" cm="1">
+        <f t="array" ref="F5:I30">_xlfn._xlws.SORT(A5:D30)</f>
+        <v>East</v>
+      </c>
+      <c r="G5" t="str">
+        <v>June</v>
+      </c>
+      <c r="H5" t="str">
+        <v>French</v>
+      </c>
+      <c r="I5">
+        <v>100</v>
+      </c>
+      <c r="L5" t="str" cm="1">
+        <f t="array" ref="L5:O30">_xlfn._xlws.SORT(A5:D30,4,-1,FALSE)</f>
+        <v>East</v>
+      </c>
+      <c r="M5" t="str">
+        <v>June</v>
+      </c>
+      <c r="N5" t="str">
+        <v>French</v>
+      </c>
+      <c r="O5">
+        <v>100</v>
+      </c>
+      <c r="R5" t="str" cm="1">
+        <f t="array" ref="R5:U30">_xlfn._xlws.SORT(Table1[],2,1)</f>
+        <v>North</v>
+      </c>
+      <c r="S5" t="str">
+        <v>Adam</v>
+      </c>
+      <c r="T5" t="str">
+        <v>English</v>
+      </c>
+      <c r="U5">
+        <v>25</v>
+      </c>
+      <c r="X5" t="str" cm="1">
+        <f t="array" ref="X5:Y30">_xlfn._xlws.SORT(Table1[[Block]:[Student]],2,-1)</f>
+        <v>North</v>
+      </c>
+      <c r="Y5" t="str">
+        <v>Vin</v>
+      </c>
+      <c r="AB5" t="str" cm="1">
+        <f t="array" ref="AB5:AD30">_xlfn._xlws.SORT(Table1[[Student]:[Mark]],1,1)</f>
+        <v>Adam</v>
+      </c>
+      <c r="AC5" t="str">
+        <v>English</v>
+      </c>
+      <c r="AD5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -613,8 +807,59 @@
       <c r="D6">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F6" t="str">
+        <v>East</v>
+      </c>
+      <c r="G6" t="str">
+        <v>Sarah</v>
+      </c>
+      <c r="H6" t="str">
+        <v>English</v>
+      </c>
+      <c r="I6">
+        <v>64</v>
+      </c>
+      <c r="L6" t="str">
+        <v>South</v>
+      </c>
+      <c r="M6" t="str">
+        <v>Franklin</v>
+      </c>
+      <c r="N6" t="str">
+        <v>History</v>
+      </c>
+      <c r="O6">
+        <v>100</v>
+      </c>
+      <c r="R6" t="str">
+        <v>West</v>
+      </c>
+      <c r="S6" t="str">
+        <v>Ava</v>
+      </c>
+      <c r="T6" t="str">
+        <v>French</v>
+      </c>
+      <c r="U6">
+        <v>78</v>
+      </c>
+      <c r="X6" t="str">
+        <v>South</v>
+      </c>
+      <c r="Y6" t="str">
+        <v>Tom</v>
+      </c>
+      <c r="AB6" t="str">
+        <v>Ava</v>
+      </c>
+      <c r="AC6" t="str">
+        <v>French</v>
+      </c>
+      <c r="AD6">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -627,8 +872,59 @@
       <c r="D7">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F7" t="str">
+        <v>East</v>
+      </c>
+      <c r="G7" t="str">
+        <v>Olivia</v>
+      </c>
+      <c r="H7" t="str">
+        <v>History</v>
+      </c>
+      <c r="I7">
+        <v>58</v>
+      </c>
+      <c r="L7" t="str">
+        <v>West</v>
+      </c>
+      <c r="M7" t="str">
+        <v>Noah</v>
+      </c>
+      <c r="N7" t="str">
+        <v>English</v>
+      </c>
+      <c r="O7">
+        <v>99</v>
+      </c>
+      <c r="R7" t="str">
+        <v>South</v>
+      </c>
+      <c r="S7" t="str">
+        <v>Ben</v>
+      </c>
+      <c r="T7" t="str">
+        <v>Maths</v>
+      </c>
+      <c r="U7">
+        <v>89</v>
+      </c>
+      <c r="X7" t="str">
+        <v>East</v>
+      </c>
+      <c r="Y7" t="str">
+        <v>Terry</v>
+      </c>
+      <c r="AB7" t="str">
+        <v>Ben</v>
+      </c>
+      <c r="AC7" t="str">
+        <v>Maths</v>
+      </c>
+      <c r="AD7">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -641,8 +937,59 @@
       <c r="D8">
         <v>80</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F8" t="str">
+        <v>East</v>
+      </c>
+      <c r="G8" t="str">
+        <v>Eve</v>
+      </c>
+      <c r="H8" t="str">
+        <v>French</v>
+      </c>
+      <c r="I8">
+        <v>46</v>
+      </c>
+      <c r="L8" t="str">
+        <v>South</v>
+      </c>
+      <c r="M8" t="str">
+        <v>Lucas</v>
+      </c>
+      <c r="N8" t="str">
+        <v>English</v>
+      </c>
+      <c r="O8">
+        <v>97</v>
+      </c>
+      <c r="R8" t="str">
+        <v>West</v>
+      </c>
+      <c r="S8" t="str">
+        <v>Christine</v>
+      </c>
+      <c r="T8" t="str">
+        <v>English</v>
+      </c>
+      <c r="U8">
+        <v>73</v>
+      </c>
+      <c r="X8" t="str">
+        <v>South</v>
+      </c>
+      <c r="Y8" t="str">
+        <v>Susie</v>
+      </c>
+      <c r="AB8" t="str">
+        <v>Christine</v>
+      </c>
+      <c r="AC8" t="str">
+        <v>English</v>
+      </c>
+      <c r="AD8">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -655,8 +1002,59 @@
       <c r="D9">
         <v>90</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F9" t="str">
+        <v>East</v>
+      </c>
+      <c r="G9" t="str">
+        <v>Terry</v>
+      </c>
+      <c r="H9" t="str">
+        <v>French</v>
+      </c>
+      <c r="I9">
+        <v>85</v>
+      </c>
+      <c r="L9" t="str">
+        <v>West</v>
+      </c>
+      <c r="M9" t="str">
+        <v>Martin</v>
+      </c>
+      <c r="N9" t="str">
+        <v>French</v>
+      </c>
+      <c r="O9">
+        <v>90</v>
+      </c>
+      <c r="R9" t="str">
+        <v>North</v>
+      </c>
+      <c r="S9" t="str">
+        <v>Claire</v>
+      </c>
+      <c r="T9" t="str">
+        <v>French</v>
+      </c>
+      <c r="U9">
+        <v>80</v>
+      </c>
+      <c r="X9" t="str">
+        <v>East</v>
+      </c>
+      <c r="Y9" t="str">
+        <v>Susan</v>
+      </c>
+      <c r="AB9" t="str">
+        <v>Claire</v>
+      </c>
+      <c r="AC9" t="str">
+        <v>French</v>
+      </c>
+      <c r="AD9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -669,8 +1067,59 @@
       <c r="D10">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F10" t="str">
+        <v>East</v>
+      </c>
+      <c r="G10" t="str">
+        <v>Susan</v>
+      </c>
+      <c r="H10" t="str">
+        <v>French</v>
+      </c>
+      <c r="I10">
+        <v>76</v>
+      </c>
+      <c r="L10" t="str">
+        <v>West</v>
+      </c>
+      <c r="M10" t="str">
+        <v>Fleur</v>
+      </c>
+      <c r="N10" t="str">
+        <v>English</v>
+      </c>
+      <c r="O10">
+        <v>90</v>
+      </c>
+      <c r="R10" t="str">
+        <v>West</v>
+      </c>
+      <c r="S10" t="str">
+        <v>Deb</v>
+      </c>
+      <c r="T10" t="str">
+        <v>Maths</v>
+      </c>
+      <c r="U10">
+        <v>60</v>
+      </c>
+      <c r="X10" t="str">
+        <v>East</v>
+      </c>
+      <c r="Y10" t="str">
+        <v>Sarah</v>
+      </c>
+      <c r="AB10" t="str">
+        <v>Deb</v>
+      </c>
+      <c r="AC10" t="str">
+        <v>Maths</v>
+      </c>
+      <c r="AD10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -683,8 +1132,59 @@
       <c r="D11">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F11" t="str">
+        <v>East Wing</v>
+      </c>
+      <c r="G11" t="str">
+        <v>Matthew</v>
+      </c>
+      <c r="H11" t="str">
+        <v>French</v>
+      </c>
+      <c r="I11">
+        <v>87</v>
+      </c>
+      <c r="L11" t="str">
+        <v>South</v>
+      </c>
+      <c r="M11" t="str">
+        <v>Ben</v>
+      </c>
+      <c r="N11" t="str">
+        <v>Maths</v>
+      </c>
+      <c r="O11">
+        <v>89</v>
+      </c>
+      <c r="R11" t="str">
+        <v>North</v>
+      </c>
+      <c r="S11" t="str">
+        <v>Elizabeth</v>
+      </c>
+      <c r="T11" t="str">
+        <v>Maths</v>
+      </c>
+      <c r="U11">
+        <v>75</v>
+      </c>
+      <c r="X11" t="str">
+        <v>South</v>
+      </c>
+      <c r="Y11" t="str">
+        <v>Sally</v>
+      </c>
+      <c r="AB11" t="str">
+        <v>Elizabeth</v>
+      </c>
+      <c r="AC11" t="str">
+        <v>Maths</v>
+      </c>
+      <c r="AD11">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -697,8 +1197,59 @@
       <c r="D12">
         <v>64</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F12" t="str">
+        <v>North</v>
+      </c>
+      <c r="G12" t="str">
+        <v>Adam</v>
+      </c>
+      <c r="H12" t="str">
+        <v>English</v>
+      </c>
+      <c r="I12">
+        <v>25</v>
+      </c>
+      <c r="L12" t="str">
+        <v>South</v>
+      </c>
+      <c r="M12" t="str">
+        <v>Ming</v>
+      </c>
+      <c r="N12" t="str">
+        <v>Maths</v>
+      </c>
+      <c r="O12">
+        <v>87</v>
+      </c>
+      <c r="R12" t="str">
+        <v>East</v>
+      </c>
+      <c r="S12" t="str">
+        <v>Eve</v>
+      </c>
+      <c r="T12" t="str">
+        <v>French</v>
+      </c>
+      <c r="U12">
+        <v>46</v>
+      </c>
+      <c r="X12" t="str">
+        <v>East</v>
+      </c>
+      <c r="Y12" t="str">
+        <v>Olivia</v>
+      </c>
+      <c r="AB12" t="str">
+        <v>Eve</v>
+      </c>
+      <c r="AC12" t="str">
+        <v>French</v>
+      </c>
+      <c r="AD12">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -711,8 +1262,59 @@
       <c r="D13">
         <v>73</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F13" t="str">
+        <v>North</v>
+      </c>
+      <c r="G13" t="str">
+        <v>Claire</v>
+      </c>
+      <c r="H13" t="str">
+        <v>French</v>
+      </c>
+      <c r="I13">
+        <v>80</v>
+      </c>
+      <c r="L13" t="str">
+        <v>East Wing</v>
+      </c>
+      <c r="M13" t="str">
+        <v>Matthew</v>
+      </c>
+      <c r="N13" t="str">
+        <v>French</v>
+      </c>
+      <c r="O13">
+        <v>87</v>
+      </c>
+      <c r="R13" t="str">
+        <v>West</v>
+      </c>
+      <c r="S13" t="str">
+        <v>Fleur</v>
+      </c>
+      <c r="T13" t="str">
+        <v>English</v>
+      </c>
+      <c r="U13">
+        <v>90</v>
+      </c>
+      <c r="X13" t="str">
+        <v>West</v>
+      </c>
+      <c r="Y13" t="str">
+        <v>Noah</v>
+      </c>
+      <c r="AB13" t="str">
+        <v>Fleur</v>
+      </c>
+      <c r="AC13" t="str">
+        <v>English</v>
+      </c>
+      <c r="AD13">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -725,8 +1327,59 @@
       <c r="D14">
         <v>87</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F14" t="str">
+        <v>North</v>
+      </c>
+      <c r="G14" t="str">
+        <v>Vin</v>
+      </c>
+      <c r="H14" t="str">
+        <v>Maths</v>
+      </c>
+      <c r="I14">
+        <v>28</v>
+      </c>
+      <c r="L14" t="str">
+        <v>East</v>
+      </c>
+      <c r="M14" t="str">
+        <v>Terry</v>
+      </c>
+      <c r="N14" t="str">
+        <v>French</v>
+      </c>
+      <c r="O14">
+        <v>85</v>
+      </c>
+      <c r="R14" t="str">
+        <v>South</v>
+      </c>
+      <c r="S14" t="str">
+        <v>Franklin</v>
+      </c>
+      <c r="T14" t="str">
+        <v>History</v>
+      </c>
+      <c r="U14">
+        <v>100</v>
+      </c>
+      <c r="X14" t="str">
+        <v>South</v>
+      </c>
+      <c r="Y14" t="str">
+        <v>Ming</v>
+      </c>
+      <c r="AB14" t="str">
+        <v>Franklin</v>
+      </c>
+      <c r="AC14" t="str">
+        <v>History</v>
+      </c>
+      <c r="AD14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -739,8 +1392,59 @@
       <c r="D15">
         <v>28</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F15" t="str">
+        <v>North</v>
+      </c>
+      <c r="G15" t="str">
+        <v>Elizabeth</v>
+      </c>
+      <c r="H15" t="str">
+        <v>Maths</v>
+      </c>
+      <c r="I15">
+        <v>75</v>
+      </c>
+      <c r="L15" t="str">
+        <v>North</v>
+      </c>
+      <c r="M15" t="str">
+        <v>Claire</v>
+      </c>
+      <c r="N15" t="str">
+        <v>French</v>
+      </c>
+      <c r="O15">
+        <v>80</v>
+      </c>
+      <c r="R15" t="str">
+        <v>South</v>
+      </c>
+      <c r="S15" t="str">
+        <v>Josh</v>
+      </c>
+      <c r="T15" t="str">
+        <v>History</v>
+      </c>
+      <c r="U15">
+        <v>45</v>
+      </c>
+      <c r="X15" t="str">
+        <v>East Wing</v>
+      </c>
+      <c r="Y15" t="str">
+        <v>Matthew</v>
+      </c>
+      <c r="AB15" t="str">
+        <v>Josh</v>
+      </c>
+      <c r="AC15" t="str">
+        <v>History</v>
+      </c>
+      <c r="AD15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -753,8 +1457,59 @@
       <c r="D16">
         <v>97</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F16" t="str">
+        <v>South</v>
+      </c>
+      <c r="G16" t="str">
+        <v>Sally</v>
+      </c>
+      <c r="H16" t="str">
+        <v>French</v>
+      </c>
+      <c r="I16">
+        <v>40</v>
+      </c>
+      <c r="L16" t="str">
+        <v>West</v>
+      </c>
+      <c r="M16" t="str">
+        <v>Ava</v>
+      </c>
+      <c r="N16" t="str">
+        <v>French</v>
+      </c>
+      <c r="O16">
+        <v>78</v>
+      </c>
+      <c r="R16" t="str">
+        <v>South</v>
+      </c>
+      <c r="S16" t="str">
+        <v>Julie</v>
+      </c>
+      <c r="T16" t="str">
+        <v>English</v>
+      </c>
+      <c r="U16">
+        <v>35</v>
+      </c>
+      <c r="X16" t="str">
+        <v>West</v>
+      </c>
+      <c r="Y16" t="str">
+        <v>Martin</v>
+      </c>
+      <c r="AB16" t="str">
+        <v>Julie</v>
+      </c>
+      <c r="AC16" t="str">
+        <v>English</v>
+      </c>
+      <c r="AD16">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -767,8 +1522,59 @@
       <c r="D17">
         <v>99</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F17" t="str">
+        <v>South</v>
+      </c>
+      <c r="G17" t="str">
+        <v>Julie</v>
+      </c>
+      <c r="H17" t="str">
+        <v>English</v>
+      </c>
+      <c r="I17">
+        <v>35</v>
+      </c>
+      <c r="L17" t="str">
+        <v>South</v>
+      </c>
+      <c r="M17" t="str">
+        <v>Susie</v>
+      </c>
+      <c r="N17" t="str">
+        <v>History</v>
+      </c>
+      <c r="O17">
+        <v>77</v>
+      </c>
+      <c r="R17" t="str">
+        <v>East</v>
+      </c>
+      <c r="S17" t="str">
+        <v>June</v>
+      </c>
+      <c r="T17" t="str">
+        <v>French</v>
+      </c>
+      <c r="U17">
+        <v>100</v>
+      </c>
+      <c r="X17" t="str">
+        <v>South</v>
+      </c>
+      <c r="Y17" t="str">
+        <v>Lucas</v>
+      </c>
+      <c r="AB17" t="str">
+        <v>June</v>
+      </c>
+      <c r="AC17" t="str">
+        <v>French</v>
+      </c>
+      <c r="AD17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -781,8 +1587,59 @@
       <c r="D18">
         <v>58</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F18" t="str">
+        <v>South</v>
+      </c>
+      <c r="G18" t="str">
+        <v>Ming</v>
+      </c>
+      <c r="H18" t="str">
+        <v>Maths</v>
+      </c>
+      <c r="I18">
+        <v>87</v>
+      </c>
+      <c r="L18" t="str">
+        <v>East</v>
+      </c>
+      <c r="M18" t="str">
+        <v>Susan</v>
+      </c>
+      <c r="N18" t="str">
+        <v>French</v>
+      </c>
+      <c r="O18">
+        <v>76</v>
+      </c>
+      <c r="R18" t="str">
+        <v>South</v>
+      </c>
+      <c r="S18" t="str">
+        <v>Lucas</v>
+      </c>
+      <c r="T18" t="str">
+        <v>English</v>
+      </c>
+      <c r="U18">
+        <v>97</v>
+      </c>
+      <c r="X18" t="str">
+        <v>East</v>
+      </c>
+      <c r="Y18" t="str">
+        <v>June</v>
+      </c>
+      <c r="AB18" t="str">
+        <v>Lucas</v>
+      </c>
+      <c r="AC18" t="str">
+        <v>English</v>
+      </c>
+      <c r="AD18">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -795,8 +1652,59 @@
       <c r="D19">
         <v>46</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F19" t="str">
+        <v>South</v>
+      </c>
+      <c r="G19" t="str">
+        <v>Lucas</v>
+      </c>
+      <c r="H19" t="str">
+        <v>English</v>
+      </c>
+      <c r="I19">
+        <v>97</v>
+      </c>
+      <c r="L19" t="str">
+        <v>North</v>
+      </c>
+      <c r="M19" t="str">
+        <v>Elizabeth</v>
+      </c>
+      <c r="N19" t="str">
+        <v>Maths</v>
+      </c>
+      <c r="O19">
+        <v>75</v>
+      </c>
+      <c r="R19" t="str">
+        <v>West</v>
+      </c>
+      <c r="S19" t="str">
+        <v>Martin</v>
+      </c>
+      <c r="T19" t="str">
+        <v>French</v>
+      </c>
+      <c r="U19">
+        <v>90</v>
+      </c>
+      <c r="X19" t="str">
+        <v>South</v>
+      </c>
+      <c r="Y19" t="str">
+        <v>Julie</v>
+      </c>
+      <c r="AB19" t="str">
+        <v>Martin</v>
+      </c>
+      <c r="AC19" t="str">
+        <v>French</v>
+      </c>
+      <c r="AD19">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -809,8 +1717,59 @@
       <c r="D20">
         <v>78</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F20" t="str">
+        <v>South</v>
+      </c>
+      <c r="G20" t="str">
+        <v>Susie</v>
+      </c>
+      <c r="H20" t="str">
+        <v>History</v>
+      </c>
+      <c r="I20">
+        <v>77</v>
+      </c>
+      <c r="L20" t="str">
+        <v>West</v>
+      </c>
+      <c r="M20" t="str">
+        <v>Christine</v>
+      </c>
+      <c r="N20" t="str">
+        <v>English</v>
+      </c>
+      <c r="O20">
+        <v>73</v>
+      </c>
+      <c r="R20" t="str">
+        <v>East Wing</v>
+      </c>
+      <c r="S20" t="str">
+        <v>Matthew</v>
+      </c>
+      <c r="T20" t="str">
+        <v>French</v>
+      </c>
+      <c r="U20">
+        <v>87</v>
+      </c>
+      <c r="X20" t="str">
+        <v>South</v>
+      </c>
+      <c r="Y20" t="str">
+        <v>Josh</v>
+      </c>
+      <c r="AB20" t="str">
+        <v>Matthew</v>
+      </c>
+      <c r="AC20" t="str">
+        <v>French</v>
+      </c>
+      <c r="AD20">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -823,8 +1782,59 @@
       <c r="D21">
         <v>77</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F21" t="str">
+        <v>South</v>
+      </c>
+      <c r="G21" t="str">
+        <v>Franklin</v>
+      </c>
+      <c r="H21" t="str">
+        <v>History</v>
+      </c>
+      <c r="I21">
+        <v>100</v>
+      </c>
+      <c r="L21" t="str">
+        <v>East</v>
+      </c>
+      <c r="M21" t="str">
+        <v>Sarah</v>
+      </c>
+      <c r="N21" t="str">
+        <v>English</v>
+      </c>
+      <c r="O21">
+        <v>64</v>
+      </c>
+      <c r="R21" t="str">
+        <v>South</v>
+      </c>
+      <c r="S21" t="str">
+        <v>Ming</v>
+      </c>
+      <c r="T21" t="str">
+        <v>Maths</v>
+      </c>
+      <c r="U21">
+        <v>87</v>
+      </c>
+      <c r="X21" t="str">
+        <v>South</v>
+      </c>
+      <c r="Y21" t="str">
+        <v>Franklin</v>
+      </c>
+      <c r="AB21" t="str">
+        <v>Ming</v>
+      </c>
+      <c r="AC21" t="str">
+        <v>Maths</v>
+      </c>
+      <c r="AD21">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -837,8 +1847,59 @@
       <c r="D22">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F22" t="str">
+        <v>South</v>
+      </c>
+      <c r="G22" t="str">
+        <v>Josh</v>
+      </c>
+      <c r="H22" t="str">
+        <v>History</v>
+      </c>
+      <c r="I22">
+        <v>45</v>
+      </c>
+      <c r="L22" t="str">
+        <v>West</v>
+      </c>
+      <c r="M22" t="str">
+        <v>Deb</v>
+      </c>
+      <c r="N22" t="str">
+        <v>Maths</v>
+      </c>
+      <c r="O22">
+        <v>60</v>
+      </c>
+      <c r="R22" t="str">
+        <v>West</v>
+      </c>
+      <c r="S22" t="str">
+        <v>Noah</v>
+      </c>
+      <c r="T22" t="str">
+        <v>English</v>
+      </c>
+      <c r="U22">
+        <v>99</v>
+      </c>
+      <c r="X22" t="str">
+        <v>West</v>
+      </c>
+      <c r="Y22" t="str">
+        <v>Fleur</v>
+      </c>
+      <c r="AB22" t="str">
+        <v>Noah</v>
+      </c>
+      <c r="AC22" t="str">
+        <v>English</v>
+      </c>
+      <c r="AD22">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -851,8 +1912,59 @@
       <c r="D23">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F23" t="str">
+        <v>South</v>
+      </c>
+      <c r="G23" t="str">
+        <v>Tom</v>
+      </c>
+      <c r="H23" t="str">
+        <v>French</v>
+      </c>
+      <c r="I23">
+        <v>38</v>
+      </c>
+      <c r="L23" t="str">
+        <v>East</v>
+      </c>
+      <c r="M23" t="str">
+        <v>Olivia</v>
+      </c>
+      <c r="N23" t="str">
+        <v>History</v>
+      </c>
+      <c r="O23">
+        <v>58</v>
+      </c>
+      <c r="R23" t="str">
+        <v>East</v>
+      </c>
+      <c r="S23" t="str">
+        <v>Olivia</v>
+      </c>
+      <c r="T23" t="str">
+        <v>History</v>
+      </c>
+      <c r="U23">
+        <v>58</v>
+      </c>
+      <c r="X23" t="str">
+        <v>East</v>
+      </c>
+      <c r="Y23" t="str">
+        <v>Eve</v>
+      </c>
+      <c r="AB23" t="str">
+        <v>Olivia</v>
+      </c>
+      <c r="AC23" t="str">
+        <v>History</v>
+      </c>
+      <c r="AD23">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -865,8 +1977,59 @@
       <c r="D24">
         <v>85</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F24" t="str">
+        <v>South</v>
+      </c>
+      <c r="G24" t="str">
+        <v>Ben</v>
+      </c>
+      <c r="H24" t="str">
+        <v>Maths</v>
+      </c>
+      <c r="I24">
+        <v>89</v>
+      </c>
+      <c r="L24" t="str">
+        <v>East</v>
+      </c>
+      <c r="M24" t="str">
+        <v>Eve</v>
+      </c>
+      <c r="N24" t="str">
+        <v>French</v>
+      </c>
+      <c r="O24">
+        <v>46</v>
+      </c>
+      <c r="R24" t="str">
+        <v>South</v>
+      </c>
+      <c r="S24" t="str">
+        <v>Sally</v>
+      </c>
+      <c r="T24" t="str">
+        <v>French</v>
+      </c>
+      <c r="U24">
+        <v>40</v>
+      </c>
+      <c r="X24" t="str">
+        <v>North</v>
+      </c>
+      <c r="Y24" t="str">
+        <v>Elizabeth</v>
+      </c>
+      <c r="AB24" t="str">
+        <v>Sally</v>
+      </c>
+      <c r="AC24" t="str">
+        <v>French</v>
+      </c>
+      <c r="AD24">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -879,8 +2042,59 @@
       <c r="D25">
         <v>75</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F25" t="str">
+        <v>West</v>
+      </c>
+      <c r="G25" t="str">
+        <v>Deb</v>
+      </c>
+      <c r="H25" t="str">
+        <v>Maths</v>
+      </c>
+      <c r="I25">
+        <v>60</v>
+      </c>
+      <c r="L25" t="str">
+        <v>South</v>
+      </c>
+      <c r="M25" t="str">
+        <v>Josh</v>
+      </c>
+      <c r="N25" t="str">
+        <v>History</v>
+      </c>
+      <c r="O25">
+        <v>45</v>
+      </c>
+      <c r="R25" t="str">
+        <v>East</v>
+      </c>
+      <c r="S25" t="str">
+        <v>Sarah</v>
+      </c>
+      <c r="T25" t="str">
+        <v>English</v>
+      </c>
+      <c r="U25">
+        <v>64</v>
+      </c>
+      <c r="X25" t="str">
+        <v>West</v>
+      </c>
+      <c r="Y25" t="str">
+        <v>Deb</v>
+      </c>
+      <c r="AB25" t="str">
+        <v>Sarah</v>
+      </c>
+      <c r="AC25" t="str">
+        <v>English</v>
+      </c>
+      <c r="AD25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -893,8 +2107,59 @@
       <c r="D26">
         <v>76</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F26" t="str">
+        <v>West</v>
+      </c>
+      <c r="G26" t="str">
+        <v>Martin</v>
+      </c>
+      <c r="H26" t="str">
+        <v>French</v>
+      </c>
+      <c r="I26">
+        <v>90</v>
+      </c>
+      <c r="L26" t="str">
+        <v>South</v>
+      </c>
+      <c r="M26" t="str">
+        <v>Sally</v>
+      </c>
+      <c r="N26" t="str">
+        <v>French</v>
+      </c>
+      <c r="O26">
+        <v>40</v>
+      </c>
+      <c r="R26" t="str">
+        <v>East</v>
+      </c>
+      <c r="S26" t="str">
+        <v>Susan</v>
+      </c>
+      <c r="T26" t="str">
+        <v>French</v>
+      </c>
+      <c r="U26">
+        <v>76</v>
+      </c>
+      <c r="X26" t="str">
+        <v>North</v>
+      </c>
+      <c r="Y26" t="str">
+        <v>Claire</v>
+      </c>
+      <c r="AB26" t="str">
+        <v>Susan</v>
+      </c>
+      <c r="AC26" t="str">
+        <v>French</v>
+      </c>
+      <c r="AD26">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -907,8 +2172,59 @@
       <c r="D27">
         <v>38</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F27" t="str">
+        <v>West</v>
+      </c>
+      <c r="G27" t="str">
+        <v>Christine</v>
+      </c>
+      <c r="H27" t="str">
+        <v>English</v>
+      </c>
+      <c r="I27">
+        <v>73</v>
+      </c>
+      <c r="L27" t="str">
+        <v>South</v>
+      </c>
+      <c r="M27" t="str">
+        <v>Tom</v>
+      </c>
+      <c r="N27" t="str">
+        <v>French</v>
+      </c>
+      <c r="O27">
+        <v>38</v>
+      </c>
+      <c r="R27" t="str">
+        <v>South</v>
+      </c>
+      <c r="S27" t="str">
+        <v>Susie</v>
+      </c>
+      <c r="T27" t="str">
+        <v>History</v>
+      </c>
+      <c r="U27">
+        <v>77</v>
+      </c>
+      <c r="X27" t="str">
+        <v>West</v>
+      </c>
+      <c r="Y27" t="str">
+        <v>Christine</v>
+      </c>
+      <c r="AB27" t="str">
+        <v>Susie</v>
+      </c>
+      <c r="AC27" t="str">
+        <v>History</v>
+      </c>
+      <c r="AD27">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -921,8 +2237,59 @@
       <c r="D28">
         <v>89</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F28" t="str">
+        <v>West</v>
+      </c>
+      <c r="G28" t="str">
+        <v>Noah</v>
+      </c>
+      <c r="H28" t="str">
+        <v>English</v>
+      </c>
+      <c r="I28">
+        <v>99</v>
+      </c>
+      <c r="L28" t="str">
+        <v>South</v>
+      </c>
+      <c r="M28" t="str">
+        <v>Julie</v>
+      </c>
+      <c r="N28" t="str">
+        <v>English</v>
+      </c>
+      <c r="O28">
+        <v>35</v>
+      </c>
+      <c r="R28" t="str">
+        <v>East</v>
+      </c>
+      <c r="S28" t="str">
+        <v>Terry</v>
+      </c>
+      <c r="T28" t="str">
+        <v>French</v>
+      </c>
+      <c r="U28">
+        <v>85</v>
+      </c>
+      <c r="X28" t="str">
+        <v>South</v>
+      </c>
+      <c r="Y28" t="str">
+        <v>Ben</v>
+      </c>
+      <c r="AB28" t="str">
+        <v>Terry</v>
+      </c>
+      <c r="AC28" t="str">
+        <v>French</v>
+      </c>
+      <c r="AD28">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -935,28 +2302,152 @@
       <c r="D29">
         <v>90</v>
       </c>
+      <c r="F29" t="str">
+        <v>West</v>
+      </c>
+      <c r="G29" t="str">
+        <v>Ava</v>
+      </c>
+      <c r="H29" t="str">
+        <v>French</v>
+      </c>
+      <c r="I29">
+        <v>78</v>
+      </c>
+      <c r="L29" t="str">
+        <v>North</v>
+      </c>
+      <c r="M29" t="str">
+        <v>Vin</v>
+      </c>
+      <c r="N29" t="str">
+        <v>Maths</v>
+      </c>
+      <c r="O29">
+        <v>28</v>
+      </c>
+      <c r="R29" t="str">
+        <v>South</v>
+      </c>
+      <c r="S29" t="str">
+        <v>Tom</v>
+      </c>
+      <c r="T29" t="str">
+        <v>French</v>
+      </c>
+      <c r="U29">
+        <v>38</v>
+      </c>
+      <c r="X29" t="str">
+        <v>West</v>
+      </c>
+      <c r="Y29" t="str">
+        <v>Ava</v>
+      </c>
+      <c r="AB29" t="str">
+        <v>Tom</v>
+      </c>
+      <c r="AC29" t="str">
+        <v>French</v>
+      </c>
+      <c r="AD29">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30">
+        <v>87</v>
+      </c>
+      <c r="F30" t="str">
+        <v>West</v>
+      </c>
+      <c r="G30" t="str">
+        <v>Fleur</v>
+      </c>
+      <c r="H30" t="str">
+        <v>English</v>
+      </c>
+      <c r="I30">
+        <v>90</v>
+      </c>
+      <c r="L30" t="str">
+        <v>North</v>
+      </c>
+      <c r="M30" t="str">
+        <v>Adam</v>
+      </c>
+      <c r="N30" t="str">
+        <v>English</v>
+      </c>
+      <c r="O30">
+        <v>25</v>
+      </c>
+      <c r="R30" t="str">
+        <v>North</v>
+      </c>
+      <c r="S30" t="str">
+        <v>Vin</v>
+      </c>
+      <c r="T30" t="str">
+        <v>Maths</v>
+      </c>
+      <c r="U30">
+        <v>28</v>
+      </c>
+      <c r="X30" t="str">
+        <v>North</v>
+      </c>
+      <c r="Y30" t="str">
+        <v>Adam</v>
+      </c>
+      <c r="AB30" t="str">
+        <v>Vin</v>
+      </c>
+      <c r="AC30" t="str">
+        <v>Maths</v>
+      </c>
+      <c r="AD30">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA376B58-3A81-488B-B53B-BE2176B419DB}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:R29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -981,8 +2472,26 @@
       <c r="I4" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -995,8 +2504,40 @@
       <c r="D5">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F5" t="str" cm="1">
+        <f t="array" ref="F5:I29">_xlfn.SORTBY(A5:D29,D5:D29,-1,A5:A29,1,B5:B29,1)</f>
+        <v>East</v>
+      </c>
+      <c r="G5" t="str">
+        <v>June</v>
+      </c>
+      <c r="H5" t="str">
+        <v>French</v>
+      </c>
+      <c r="I5">
+        <v>100</v>
+      </c>
+      <c r="L5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5">
+        <v>60</v>
+      </c>
+      <c r="N5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P5" t="str" cm="1">
+        <f t="array" ref="P5:R29">_xlfn.SORTBY(L5:N29,M5:M29,-1,L5:L29,1)</f>
+        <v>Franklin</v>
+      </c>
+      <c r="Q5">
+        <v>100</v>
+      </c>
+      <c r="R5" t="str">
+        <v>History</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1009,8 +2550,38 @@
       <c r="D6">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F6" t="str">
+        <v>South</v>
+      </c>
+      <c r="G6" t="str">
+        <v>Franklin</v>
+      </c>
+      <c r="H6" t="str">
+        <v>History</v>
+      </c>
+      <c r="I6">
+        <v>100</v>
+      </c>
+      <c r="L6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6">
+        <v>25</v>
+      </c>
+      <c r="N6" t="s">
+        <v>34</v>
+      </c>
+      <c r="P6" t="str">
+        <v>June</v>
+      </c>
+      <c r="Q6">
+        <v>100</v>
+      </c>
+      <c r="R6" t="str">
+        <v>French</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1023,8 +2594,38 @@
       <c r="D7">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F7" t="str">
+        <v>West</v>
+      </c>
+      <c r="G7" t="str">
+        <v>Noah</v>
+      </c>
+      <c r="H7" t="str">
+        <v>English</v>
+      </c>
+      <c r="I7">
+        <v>99</v>
+      </c>
+      <c r="L7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7">
+        <v>40</v>
+      </c>
+      <c r="N7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" t="str">
+        <v>Noah</v>
+      </c>
+      <c r="Q7">
+        <v>99</v>
+      </c>
+      <c r="R7" t="str">
+        <v>English</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1037,8 +2638,38 @@
       <c r="D8">
         <v>80</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F8" t="str">
+        <v>South</v>
+      </c>
+      <c r="G8" t="str">
+        <v>Lucas</v>
+      </c>
+      <c r="H8" t="str">
+        <v>English</v>
+      </c>
+      <c r="I8">
+        <v>97</v>
+      </c>
+      <c r="L8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8">
+        <v>80</v>
+      </c>
+      <c r="N8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P8" t="str">
+        <v>Lucas</v>
+      </c>
+      <c r="Q8">
+        <v>97</v>
+      </c>
+      <c r="R8" t="str">
+        <v>English</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1051,8 +2682,38 @@
       <c r="D9">
         <v>90</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F9" t="str">
+        <v>West</v>
+      </c>
+      <c r="G9" t="str">
+        <v>Fleur</v>
+      </c>
+      <c r="H9" t="str">
+        <v>English</v>
+      </c>
+      <c r="I9">
+        <v>90</v>
+      </c>
+      <c r="L9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M9">
+        <v>90</v>
+      </c>
+      <c r="N9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P9" t="str">
+        <v>Fleur</v>
+      </c>
+      <c r="Q9">
+        <v>90</v>
+      </c>
+      <c r="R9" t="str">
+        <v>English</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1065,8 +2726,38 @@
       <c r="D10">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F10" t="str">
+        <v>West</v>
+      </c>
+      <c r="G10" t="str">
+        <v>Martin</v>
+      </c>
+      <c r="H10" t="str">
+        <v>French</v>
+      </c>
+      <c r="I10">
+        <v>90</v>
+      </c>
+      <c r="L10" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10">
+        <v>100</v>
+      </c>
+      <c r="N10" t="s">
+        <v>37</v>
+      </c>
+      <c r="P10" t="str">
+        <v>Martin</v>
+      </c>
+      <c r="Q10">
+        <v>90</v>
+      </c>
+      <c r="R10" t="str">
+        <v>French</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1079,8 +2770,38 @@
       <c r="D11">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F11" t="str">
+        <v>South</v>
+      </c>
+      <c r="G11" t="str">
+        <v>Ben</v>
+      </c>
+      <c r="H11" t="str">
+        <v>Maths</v>
+      </c>
+      <c r="I11">
+        <v>89</v>
+      </c>
+      <c r="L11" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11">
+        <v>35</v>
+      </c>
+      <c r="N11" t="s">
+        <v>34</v>
+      </c>
+      <c r="P11" t="str">
+        <v>Ben</v>
+      </c>
+      <c r="Q11">
+        <v>89</v>
+      </c>
+      <c r="R11" t="str">
+        <v>Maths</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1093,8 +2814,38 @@
       <c r="D12">
         <v>64</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F12" t="str">
+        <v>South</v>
+      </c>
+      <c r="G12" t="str">
+        <v>Ming</v>
+      </c>
+      <c r="H12" t="str">
+        <v>Maths</v>
+      </c>
+      <c r="I12">
+        <v>87</v>
+      </c>
+      <c r="L12" t="s">
+        <v>16</v>
+      </c>
+      <c r="M12">
+        <v>64</v>
+      </c>
+      <c r="N12" t="s">
+        <v>34</v>
+      </c>
+      <c r="P12" t="str">
+        <v>Ming</v>
+      </c>
+      <c r="Q12">
+        <v>87</v>
+      </c>
+      <c r="R12" t="str">
+        <v>Maths</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -1107,8 +2858,38 @@
       <c r="D13">
         <v>73</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F13" t="str">
+        <v>East</v>
+      </c>
+      <c r="G13" t="str">
+        <v>Terry</v>
+      </c>
+      <c r="H13" t="str">
+        <v>French</v>
+      </c>
+      <c r="I13">
+        <v>85</v>
+      </c>
+      <c r="L13" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13">
+        <v>73</v>
+      </c>
+      <c r="N13" t="s">
+        <v>34</v>
+      </c>
+      <c r="P13" t="str">
+        <v>Terry</v>
+      </c>
+      <c r="Q13">
+        <v>85</v>
+      </c>
+      <c r="R13" t="str">
+        <v>French</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -1121,8 +2902,38 @@
       <c r="D14">
         <v>87</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F14" t="str">
+        <v>North</v>
+      </c>
+      <c r="G14" t="str">
+        <v>Claire</v>
+      </c>
+      <c r="H14" t="str">
+        <v>French</v>
+      </c>
+      <c r="I14">
+        <v>80</v>
+      </c>
+      <c r="L14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M14">
+        <v>87</v>
+      </c>
+      <c r="N14" t="s">
+        <v>35</v>
+      </c>
+      <c r="P14" t="str">
+        <v>Claire</v>
+      </c>
+      <c r="Q14">
+        <v>80</v>
+      </c>
+      <c r="R14" t="str">
+        <v>French</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -1135,8 +2946,38 @@
       <c r="D15">
         <v>28</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F15" t="str">
+        <v>West</v>
+      </c>
+      <c r="G15" t="str">
+        <v>Ava</v>
+      </c>
+      <c r="H15" t="str">
+        <v>French</v>
+      </c>
+      <c r="I15">
+        <v>78</v>
+      </c>
+      <c r="L15" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15">
+        <v>28</v>
+      </c>
+      <c r="N15" t="s">
+        <v>35</v>
+      </c>
+      <c r="P15" t="str">
+        <v>Ava</v>
+      </c>
+      <c r="Q15">
+        <v>78</v>
+      </c>
+      <c r="R15" t="str">
+        <v>French</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -1149,8 +2990,38 @@
       <c r="D16">
         <v>97</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F16" t="str">
+        <v>South</v>
+      </c>
+      <c r="G16" t="str">
+        <v>Susie</v>
+      </c>
+      <c r="H16" t="str">
+        <v>History</v>
+      </c>
+      <c r="I16">
+        <v>77</v>
+      </c>
+      <c r="L16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16">
+        <v>97</v>
+      </c>
+      <c r="N16" t="s">
+        <v>34</v>
+      </c>
+      <c r="P16" t="str">
+        <v>Susie</v>
+      </c>
+      <c r="Q16">
+        <v>77</v>
+      </c>
+      <c r="R16" t="str">
+        <v>History</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -1163,8 +3034,38 @@
       <c r="D17">
         <v>99</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F17" t="str">
+        <v>East</v>
+      </c>
+      <c r="G17" t="str">
+        <v>Susan</v>
+      </c>
+      <c r="H17" t="str">
+        <v>French</v>
+      </c>
+      <c r="I17">
+        <v>76</v>
+      </c>
+      <c r="L17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17">
+        <v>99</v>
+      </c>
+      <c r="N17" t="s">
+        <v>34</v>
+      </c>
+      <c r="P17" t="str">
+        <v>Susan</v>
+      </c>
+      <c r="Q17">
+        <v>76</v>
+      </c>
+      <c r="R17" t="str">
+        <v>French</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1177,8 +3078,38 @@
       <c r="D18">
         <v>58</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F18" t="str">
+        <v>North</v>
+      </c>
+      <c r="G18" t="str">
+        <v>Elizabeth</v>
+      </c>
+      <c r="H18" t="str">
+        <v>Maths</v>
+      </c>
+      <c r="I18">
+        <v>75</v>
+      </c>
+      <c r="L18" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18">
+        <v>58</v>
+      </c>
+      <c r="N18" t="s">
+        <v>36</v>
+      </c>
+      <c r="P18" t="str">
+        <v>Elizabeth</v>
+      </c>
+      <c r="Q18">
+        <v>75</v>
+      </c>
+      <c r="R18" t="str">
+        <v>Maths</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1191,8 +3122,38 @@
       <c r="D19">
         <v>46</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F19" t="str">
+        <v>West</v>
+      </c>
+      <c r="G19" t="str">
+        <v>Christine</v>
+      </c>
+      <c r="H19" t="str">
+        <v>English</v>
+      </c>
+      <c r="I19">
+        <v>73</v>
+      </c>
+      <c r="L19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M19">
+        <v>46</v>
+      </c>
+      <c r="N19" t="s">
+        <v>37</v>
+      </c>
+      <c r="P19" t="str">
+        <v>Christine</v>
+      </c>
+      <c r="Q19">
+        <v>73</v>
+      </c>
+      <c r="R19" t="str">
+        <v>English</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1205,8 +3166,38 @@
       <c r="D20">
         <v>78</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F20" t="str">
+        <v>East</v>
+      </c>
+      <c r="G20" t="str">
+        <v>Sarah</v>
+      </c>
+      <c r="H20" t="str">
+        <v>English</v>
+      </c>
+      <c r="I20">
+        <v>64</v>
+      </c>
+      <c r="L20" t="s">
+        <v>24</v>
+      </c>
+      <c r="M20">
+        <v>78</v>
+      </c>
+      <c r="N20" t="s">
+        <v>37</v>
+      </c>
+      <c r="P20" t="str">
+        <v>Sarah</v>
+      </c>
+      <c r="Q20">
+        <v>64</v>
+      </c>
+      <c r="R20" t="str">
+        <v>English</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -1219,8 +3210,38 @@
       <c r="D21">
         <v>77</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F21" t="str">
+        <v>West</v>
+      </c>
+      <c r="G21" t="str">
+        <v>Deb</v>
+      </c>
+      <c r="H21" t="str">
+        <v>Maths</v>
+      </c>
+      <c r="I21">
+        <v>60</v>
+      </c>
+      <c r="L21" t="s">
+        <v>25</v>
+      </c>
+      <c r="M21">
+        <v>77</v>
+      </c>
+      <c r="N21" t="s">
+        <v>36</v>
+      </c>
+      <c r="P21" t="str">
+        <v>Deb</v>
+      </c>
+      <c r="Q21">
+        <v>60</v>
+      </c>
+      <c r="R21" t="str">
+        <v>Maths</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -1233,8 +3254,38 @@
       <c r="D22">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F22" t="str">
+        <v>East</v>
+      </c>
+      <c r="G22" t="str">
+        <v>Olivia</v>
+      </c>
+      <c r="H22" t="str">
+        <v>History</v>
+      </c>
+      <c r="I22">
+        <v>58</v>
+      </c>
+      <c r="L22" t="s">
+        <v>26</v>
+      </c>
+      <c r="M22">
+        <v>100</v>
+      </c>
+      <c r="N22" t="s">
+        <v>36</v>
+      </c>
+      <c r="P22" t="str">
+        <v>Olivia</v>
+      </c>
+      <c r="Q22">
+        <v>58</v>
+      </c>
+      <c r="R22" t="str">
+        <v>History</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -1247,8 +3298,38 @@
       <c r="D23">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F23" t="str">
+        <v>East</v>
+      </c>
+      <c r="G23" t="str">
+        <v>Eve</v>
+      </c>
+      <c r="H23" t="str">
+        <v>French</v>
+      </c>
+      <c r="I23">
+        <v>46</v>
+      </c>
+      <c r="L23" t="s">
+        <v>27</v>
+      </c>
+      <c r="M23">
+        <v>45</v>
+      </c>
+      <c r="N23" t="s">
+        <v>36</v>
+      </c>
+      <c r="P23" t="str">
+        <v>Eve</v>
+      </c>
+      <c r="Q23">
+        <v>46</v>
+      </c>
+      <c r="R23" t="str">
+        <v>French</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -1261,8 +3342,38 @@
       <c r="D24">
         <v>85</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F24" t="str">
+        <v>South</v>
+      </c>
+      <c r="G24" t="str">
+        <v>Josh</v>
+      </c>
+      <c r="H24" t="str">
+        <v>History</v>
+      </c>
+      <c r="I24">
+        <v>45</v>
+      </c>
+      <c r="L24" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24">
+        <v>85</v>
+      </c>
+      <c r="N24" t="s">
+        <v>37</v>
+      </c>
+      <c r="P24" t="str">
+        <v>Josh</v>
+      </c>
+      <c r="Q24">
+        <v>45</v>
+      </c>
+      <c r="R24" t="str">
+        <v>History</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -1275,8 +3386,38 @@
       <c r="D25">
         <v>75</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F25" t="str">
+        <v>South</v>
+      </c>
+      <c r="G25" t="str">
+        <v>Sally</v>
+      </c>
+      <c r="H25" t="str">
+        <v>French</v>
+      </c>
+      <c r="I25">
+        <v>40</v>
+      </c>
+      <c r="L25" t="s">
+        <v>29</v>
+      </c>
+      <c r="M25">
+        <v>75</v>
+      </c>
+      <c r="N25" t="s">
+        <v>35</v>
+      </c>
+      <c r="P25" t="str">
+        <v>Sally</v>
+      </c>
+      <c r="Q25">
+        <v>40</v>
+      </c>
+      <c r="R25" t="str">
+        <v>French</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -1289,8 +3430,38 @@
       <c r="D26">
         <v>76</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F26" t="str">
+        <v>South</v>
+      </c>
+      <c r="G26" t="str">
+        <v>Tom</v>
+      </c>
+      <c r="H26" t="str">
+        <v>French</v>
+      </c>
+      <c r="I26">
+        <v>38</v>
+      </c>
+      <c r="L26" t="s">
+        <v>30</v>
+      </c>
+      <c r="M26">
+        <v>76</v>
+      </c>
+      <c r="N26" t="s">
+        <v>37</v>
+      </c>
+      <c r="P26" t="str">
+        <v>Tom</v>
+      </c>
+      <c r="Q26">
+        <v>38</v>
+      </c>
+      <c r="R26" t="str">
+        <v>French</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -1303,8 +3474,38 @@
       <c r="D27">
         <v>38</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F27" t="str">
+        <v>South</v>
+      </c>
+      <c r="G27" t="str">
+        <v>Julie</v>
+      </c>
+      <c r="H27" t="str">
+        <v>English</v>
+      </c>
+      <c r="I27">
+        <v>35</v>
+      </c>
+      <c r="L27" t="s">
+        <v>31</v>
+      </c>
+      <c r="M27">
+        <v>38</v>
+      </c>
+      <c r="N27" t="s">
+        <v>37</v>
+      </c>
+      <c r="P27" t="str">
+        <v>Julie</v>
+      </c>
+      <c r="Q27">
+        <v>35</v>
+      </c>
+      <c r="R27" t="str">
+        <v>English</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -1317,8 +3518,38 @@
       <c r="D28">
         <v>89</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F28" t="str">
+        <v>North</v>
+      </c>
+      <c r="G28" t="str">
+        <v>Vin</v>
+      </c>
+      <c r="H28" t="str">
+        <v>Maths</v>
+      </c>
+      <c r="I28">
+        <v>28</v>
+      </c>
+      <c r="L28" t="s">
+        <v>32</v>
+      </c>
+      <c r="M28">
+        <v>89</v>
+      </c>
+      <c r="N28" t="s">
+        <v>35</v>
+      </c>
+      <c r="P28" t="str">
+        <v>Vin</v>
+      </c>
+      <c r="Q28">
+        <v>28</v>
+      </c>
+      <c r="R28" t="str">
+        <v>Maths</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -1330,6 +3561,36 @@
       </c>
       <c r="D29">
         <v>90</v>
+      </c>
+      <c r="F29" t="str">
+        <v>North</v>
+      </c>
+      <c r="G29" t="str">
+        <v>Adam</v>
+      </c>
+      <c r="H29" t="str">
+        <v>English</v>
+      </c>
+      <c r="I29">
+        <v>25</v>
+      </c>
+      <c r="L29" t="s">
+        <v>33</v>
+      </c>
+      <c r="M29">
+        <v>90</v>
+      </c>
+      <c r="N29" t="s">
+        <v>34</v>
+      </c>
+      <c r="P29" t="str">
+        <v>Adam</v>
+      </c>
+      <c r="Q29">
+        <v>25</v>
+      </c>
+      <c r="R29" t="str">
+        <v>English</v>
       </c>
     </row>
   </sheetData>
